--- a/results/mp/logistic/corona/confidence/84/topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,54 +40,48 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>war</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -97,139 +91,175 @@
     <t>stop</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>to</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -587,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,10 +625,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,13 +686,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7465753424657534</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>218</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>218</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -674,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -698,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -706,13 +736,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7307692307692307</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -724,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -748,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -756,13 +786,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7241379310344828</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -774,19 +804,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -798,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -806,13 +836,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6842105263157895</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -824,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -848,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -856,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5588235294117647</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -874,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.835509138381201</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>320</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>320</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -898,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>63</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -906,13 +936,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5277777777777778</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -924,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.8301886792452831</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -948,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -956,13 +986,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5263157894736842</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -974,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -998,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1006,13 +1036,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.52</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1024,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.78125</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>311</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>311</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1048,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1056,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1074,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1098,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1106,13 +1136,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4338624338624338</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C12">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1124,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.7692307692307693</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1148,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1156,13 +1186,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3783783783783784</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1174,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.7692307692307693</v>
+        <v>0.79375</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1198,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1206,13 +1236,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3725490196078431</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1224,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.7682926829268293</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L14">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1248,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1256,13 +1286,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3333333333333333</v>
+        <v>0.3352713178294573</v>
       </c>
       <c r="C15">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D15">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1274,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.7659574468085106</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1298,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1306,7 +1336,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.288135593220339</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C16">
         <v>17</v>
@@ -1324,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.7586206896551724</v>
+        <v>0.78125</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1348,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1356,13 +1386,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2666666666666667</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1374,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.7575757575757576</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1406,13 +1436,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2363636363636364</v>
+        <v>0.1722222222222222</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1424,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>42</v>
+        <v>298</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L18">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1448,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1456,13 +1486,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1879194630872483</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1474,10 +1504,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>0.7464788732394366</v>
@@ -1506,31 +1536,31 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1305555555555556</v>
+        <v>0.007494145199063232</v>
       </c>
       <c r="C20">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>313</v>
+        <v>2119</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.7291666666666666</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L20">
         <v>35</v>
@@ -1548,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1556,37 +1586,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.07142857142857142</v>
+        <v>0.006323777403035413</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>234</v>
+        <v>2357</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.6984126984126984</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1598,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1606,37 +1636,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006310475389145982</v>
+        <v>0.005797101449275362</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F22">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2362</v>
+        <v>3087</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1648,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1656,37 +1686,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004513217279174726</v>
+        <v>0.003421211511370497</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E23">
-        <v>0.26</v>
+        <v>0.61</v>
       </c>
       <c r="F23">
-        <v>0.74</v>
+        <v>0.39</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3088</v>
+        <v>4952</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.66</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1698,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1706,87 +1736,63 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.003707995365005794</v>
+        <v>0.003311903370348724</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E24">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="F24">
-        <v>0.55</v>
+        <v>0.35</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>4299</v>
+        <v>5116</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L24">
+        <v>34</v>
+      </c>
+      <c r="M24">
+        <v>34</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K24">
-        <v>0.6058823529411764</v>
-      </c>
-      <c r="L24">
-        <v>206</v>
-      </c>
-      <c r="M24">
-        <v>206</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.003687888198757764</v>
-      </c>
-      <c r="C25">
+      <c r="K25">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L25">
         <v>19</v>
       </c>
-      <c r="D25">
-        <v>32</v>
-      </c>
-      <c r="E25">
-        <v>0.41</v>
-      </c>
-      <c r="F25">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>5133</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K25">
-        <v>0.6046511627906976</v>
-      </c>
-      <c r="L25">
-        <v>26</v>
-      </c>
       <c r="M25">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1798,21 +1804,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1824,21 +1830,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.5898305084745763</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L27">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1850,21 +1856,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.5648535564853556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1876,21 +1882,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>104</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.5531914893617021</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L29">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="M29">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1902,21 +1908,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>42</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.5357142857142857</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1933,16 +1939,16 @@
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1954,21 +1960,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1985,16 +1991,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.4831460674157304</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2006,15 +2012,15 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.4642857142857143</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L34">
         <v>13</v>
@@ -2032,21 +2038,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.4571428571428571</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2058,21 +2064,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>0.3939393939393939</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2084,21 +2090,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K37">
-        <v>0.392156862745098</v>
+        <v>0.5648535564853556</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2110,21 +2116,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K38">
-        <v>0.358974358974359</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L38">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M38">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2136,21 +2142,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K39">
-        <v>0.3150684931506849</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2162,85 +2168,85 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K40">
-        <v>0.02085070892410342</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>1174</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K41">
-        <v>0.005997001499250375</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N41">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>2652</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="K42">
-        <v>0.003014842300556586</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M42">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N42">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>4299</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2248,51 +2254,337 @@
         <v>71</v>
       </c>
       <c r="K43">
-        <v>0.002807298977341087</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N43">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>4973</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K44">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="L44">
+        <v>21</v>
+      </c>
+      <c r="M44">
+        <v>21</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>30</v>
       </c>
-      <c r="K44">
-        <v>0.002526233968130587</v>
-      </c>
-      <c r="L44">
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K45">
+        <v>0.3555555555555556</v>
+      </c>
+      <c r="L45">
+        <v>16</v>
+      </c>
+      <c r="M45">
+        <v>16</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K46">
+        <v>0.2876712328767123</v>
+      </c>
+      <c r="L46">
+        <v>21</v>
+      </c>
+      <c r="M46">
+        <v>21</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K47">
+        <v>0.2711864406779661</v>
+      </c>
+      <c r="L47">
+        <v>16</v>
+      </c>
+      <c r="M47">
+        <v>16</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K48">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="L48">
+        <v>20</v>
+      </c>
+      <c r="M48">
+        <v>20</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49">
+        <v>0.01668056713928273</v>
+      </c>
+      <c r="L49">
+        <v>20</v>
+      </c>
+      <c r="M49">
+        <v>21</v>
+      </c>
+      <c r="N49">
+        <v>0.95</v>
+      </c>
+      <c r="O49">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K50">
+        <v>0.008186397984886649</v>
+      </c>
+      <c r="L50">
         <v>13</v>
       </c>
-      <c r="M44">
+      <c r="M50">
+        <v>19</v>
+      </c>
+      <c r="N50">
+        <v>0.68</v>
+      </c>
+      <c r="O50">
+        <v>0.32</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K51">
+        <v>0.007879924953095686</v>
+      </c>
+      <c r="L51">
+        <v>21</v>
+      </c>
+      <c r="M51">
+        <v>29</v>
+      </c>
+      <c r="N51">
+        <v>0.72</v>
+      </c>
+      <c r="O51">
+        <v>0.28</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52">
+        <v>0.006216006216006216</v>
+      </c>
+      <c r="L52">
         <v>32</v>
       </c>
-      <c r="N44">
-        <v>0.41</v>
-      </c>
-      <c r="O44">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>5133</v>
+      <c r="M52">
+        <v>49</v>
+      </c>
+      <c r="N52">
+        <v>0.65</v>
+      </c>
+      <c r="O52">
+        <v>0.35</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>5116</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K53">
+        <v>0.005737704918032787</v>
+      </c>
+      <c r="L53">
+        <v>14</v>
+      </c>
+      <c r="M53">
+        <v>19</v>
+      </c>
+      <c r="N53">
+        <v>0.74</v>
+      </c>
+      <c r="O53">
+        <v>0.26</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K54">
+        <v>0.005555555555555556</v>
+      </c>
+      <c r="L54">
+        <v>24</v>
+      </c>
+      <c r="M54">
+        <v>32</v>
+      </c>
+      <c r="N54">
+        <v>0.75</v>
+      </c>
+      <c r="O54">
+        <v>0.25</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K55">
+        <v>0.005422775657762603</v>
+      </c>
+      <c r="L55">
+        <v>27</v>
+      </c>
+      <c r="M55">
+        <v>44</v>
+      </c>
+      <c r="N55">
+        <v>0.61</v>
+      </c>
+      <c r="O55">
+        <v>0.39</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>4952</v>
       </c>
     </row>
   </sheetData>
